--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,114 +40,117 @@
     <t>name</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>dangerous</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>weird</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>dark</t>
+    <t>least</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -163,118 +166,127 @@
     <t>great</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>live</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>whole</t>
+    <t>today</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>much</t>
+    <t>real</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>right</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
     <t>dilemma</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -638,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,10 +722,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -734,10 +746,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -757,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>45</v>
@@ -784,10 +796,10 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -807,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9807692307692307</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K7">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -981,13 +993,13 @@
         <v>49</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K9">
-        <v>0.7241379310344828</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K10">
-        <v>0.6923076923076923</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K11">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8421052631578947</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K12">
-        <v>0.68</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L12">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1231,13 +1243,13 @@
         <v>54</v>
       </c>
       <c r="K13">
-        <v>0.6111111111111112</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1281,13 +1293,13 @@
         <v>55</v>
       </c>
       <c r="K14">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1307,37 +1319,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>10</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K15">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,10 +1372,10 @@
         <v>0.75</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K16">
-        <v>0.5333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,10 +1472,10 @@
         <v>0.7</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K18">
-        <v>0.4736842105263158</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1531,13 +1543,13 @@
         <v>60</v>
       </c>
       <c r="K19">
-        <v>0.4444444444444444</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6595744680851063</v>
+        <v>0.6875</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,31 +1587,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K20">
-        <v>0.3958333333333333</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>19</v>
-      </c>
-      <c r="M20">
-        <v>19</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6470588235294118</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>62</v>
@@ -1657,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6470588235294118</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K22">
-        <v>0.3157894736842105</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6285714285714286</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1725,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K23">
-        <v>0.2786885245901639</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L23">
-        <v>306</v>
+        <v>7</v>
       </c>
       <c r="M23">
-        <v>306</v>
+        <v>7</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>792</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6014492753623188</v>
+        <v>0.6159420289855072</v>
       </c>
       <c r="C24">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1775,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K24">
-        <v>0.2711864406779661</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1799,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,13 +1819,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5833333333333334</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1825,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K25">
-        <v>0.2608695652173913</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L25">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,13 +1869,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1875,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K26">
-        <v>0.2459016393442623</v>
+        <v>0.2604735883424408</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1899,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>46</v>
+        <v>812</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1907,13 +1919,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5833333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1925,19 +1937,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K27">
-        <v>0.2439024390243902</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1949,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1957,13 +1969,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1975,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K28">
-        <v>0.2307692307692308</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1999,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2007,13 +2019,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2025,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K29">
-        <v>0.2173913043478261</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2049,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2057,13 +2069,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5217391304347826</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2075,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K30">
-        <v>0.2153846153846154</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2099,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2107,13 +2119,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2125,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K31">
-        <v>0.1529411764705882</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2149,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2157,13 +2169,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2175,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K32">
-        <v>0.1481481481481481</v>
+        <v>0.15</v>
       </c>
       <c r="L32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2199,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2207,13 +2219,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4615384615384616</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2225,19 +2237,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K33">
-        <v>0.1473684210526316</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2249,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2257,13 +2269,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2275,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K34">
-        <v>0.1463414634146341</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2299,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2307,13 +2319,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3571428571428572</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2325,19 +2337,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K35">
-        <v>0.1408450704225352</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2349,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2357,13 +2369,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2375,19 +2387,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K36">
-        <v>0.1232876712328767</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2399,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2407,13 +2419,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2425,19 +2437,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K37">
-        <v>0.1111111111111111</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M37">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2449,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2457,37 +2469,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04391891891891892</v>
+        <v>0.05016722408026756</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K38">
-        <v>0.06569343065693431</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="L38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2499,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>128</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2507,13 +2519,13 @@
         <v>80</v>
       </c>
       <c r="K39">
-        <v>0.04946996466431095</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2525,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>269</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2533,13 +2545,13 @@
         <v>81</v>
       </c>
       <c r="K40">
-        <v>0.04814814814814815</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2551,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>514</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2559,13 +2571,13 @@
         <v>82</v>
       </c>
       <c r="K41">
-        <v>0.04367469879518072</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2577,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>635</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2585,13 +2597,13 @@
         <v>83</v>
       </c>
       <c r="K42">
-        <v>0.04097311139564661</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2603,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>749</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2611,13 +2623,13 @@
         <v>84</v>
       </c>
       <c r="K43">
-        <v>0.03225806451612903</v>
+        <v>0.05185185185185185</v>
       </c>
       <c r="L43">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2629,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>330</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2637,13 +2649,13 @@
         <v>85</v>
       </c>
       <c r="K44">
-        <v>0.03174603174603174</v>
+        <v>0.0499359795134443</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2655,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>305</v>
+        <v>742</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2663,13 +2675,13 @@
         <v>86</v>
       </c>
       <c r="K45">
-        <v>0.02922077922077922</v>
+        <v>0.0469208211143695</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2681,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>598</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2689,13 +2701,13 @@
         <v>87</v>
       </c>
       <c r="K46">
-        <v>0.02073732718894009</v>
+        <v>0.04379562043795621</v>
       </c>
       <c r="L46">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="M46">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2707,7 +2719,111 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>1700</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K47">
+        <v>0.04220779220779221</v>
+      </c>
+      <c r="L47">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K48">
+        <v>0.03886925795053003</v>
+      </c>
+      <c r="L48">
+        <v>11</v>
+      </c>
+      <c r="M48">
+        <v>11</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K49">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="L49">
+        <v>9</v>
+      </c>
+      <c r="M49">
+        <v>9</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50">
+        <v>0.0282258064516129</v>
+      </c>
+      <c r="L50">
+        <v>49</v>
+      </c>
+      <c r="M50">
+        <v>49</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>1687</v>
       </c>
     </row>
   </sheetData>
